--- a/biology/Zoologie/Geron/Geron.xlsx
+++ b/biology/Zoologie/Geron/Geron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geron est un genre d'insectes diptères de la famille des Bombyliidae et de la tribu des Gerontini.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Geron est décrit par Johann Wilhelm Meigen en 1820[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Geron est décrit par Johann Wilhelm Meigen en 1820.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici la liste des 188 espèces référencées dans ce genre[2],[3],[4],[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici la liste des 188 espèces référencées dans ce genre :
 Geron aaptis Evenhuis, 1979 c g
 Geron ablusus Bowden, 1974 c g
 Geron aequalis Painter, 1932 i c g
@@ -733,7 +749,7 @@
 Geron weemsi Hall &amp; Evenhuis, 2003 c g
 Geron westralicus Evenhuis, 1979 c g
 Geron winburni Painter, 1932 i c g
-Data sources: i = ITIS[2], c = Catalogue of Life[3], g = GBIF[4], b = Bugguide.net[5]
+Data sources: i = ITIS, c = Catalogue of Life, g = GBIF, b = Bugguide.net
 </t>
         </is>
       </c>
@@ -762,9 +778,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de trois[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, les espèces fossiles référencées sont au nombre de trois :
 †Geron figuratus Théobald, 1937
 †Geron oligocaenicus Timon-David, 1944
 †Geron platysoma Cockerell, 1915</t>
@@ -795,10 +813,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les larves de Geron parasitent les chenilles des Pyralidés (Nephopteryx) et des Pychides (Fumea). Ce genre est répandu dans toutes les régions du globe. »[6].
+« Les larves de Geron parasitent les chenilles des Pyralidés (Nephopteryx) et des Pychides (Fumea). Ce genre est répandu dans toutes les régions du globe. ».
 </t>
         </is>
       </c>
